--- a/teaching/traditional_assets/database/data/switzerland/switzerland_electronics_consumer_office.xlsx
+++ b/teaching/traditional_assets/database/data/switzerland/switzerland_electronics_consumer_office.xlsx
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0488</v>
+        <v>0.0674</v>
       </c>
       <c r="E2">
-        <v>0.197</v>
+        <v>0.138</v>
       </c>
       <c r="F2">
-        <v>0.06570000000000001</v>
+        <v>0.0673</v>
       </c>
       <c r="G2">
-        <v>0.4078162457490104</v>
+        <v>0.4367856961446639</v>
       </c>
       <c r="H2">
-        <v>0.2437698611807995</v>
+        <v>0.2671305937928582</v>
       </c>
       <c r="I2">
-        <v>0.2498145767135155</v>
+        <v>0.2446732365725875</v>
       </c>
       <c r="J2">
-        <v>0.2096490474748285</v>
+        <v>0.2446732365725875</v>
       </c>
       <c r="K2">
-        <v>781.8</v>
+        <v>1019.6</v>
       </c>
       <c r="L2">
-        <v>0.2179294196353905</v>
+        <v>0.2589526083202113</v>
       </c>
       <c r="M2">
-        <v>331.6</v>
+        <v>468.3</v>
       </c>
       <c r="N2">
-        <v>0.01780823389149652</v>
+        <v>0.02046452684248476</v>
       </c>
       <c r="O2">
-        <v>0.4241493988232284</v>
+        <v>0.4592977638289525</v>
       </c>
       <c r="P2">
-        <v>308.9</v>
+        <v>442.3</v>
       </c>
       <c r="Q2">
-        <v>0.01658915394777827</v>
+        <v>0.01932833701138375</v>
       </c>
       <c r="R2">
-        <v>0.3951138398567409</v>
+        <v>0.4337975676735975</v>
       </c>
       <c r="S2">
-        <v>22.69999999999999</v>
+        <v>26</v>
       </c>
       <c r="T2">
-        <v>0.06845597104945715</v>
+        <v>0.05551996583386718</v>
       </c>
       <c r="U2">
-        <v>976.4</v>
+        <v>1223.5</v>
       </c>
       <c r="V2">
-        <v>0.05243654876856815</v>
+        <v>0.0534664714750803</v>
       </c>
       <c r="W2">
-        <v>0.1977888531889594</v>
+        <v>0.2327375653404552</v>
       </c>
       <c r="X2">
-        <v>0.08715700764059524</v>
+        <v>0.0634871818159634</v>
       </c>
       <c r="Y2">
-        <v>0.1106318455483642</v>
+        <v>0.1692503835244918</v>
       </c>
       <c r="Z2">
-        <v>1.21201025845784</v>
+        <v>1.133678731770138</v>
       </c>
       <c r="AA2">
-        <v>0.2540967962154069</v>
+        <v>0.2773808445357058</v>
       </c>
       <c r="AB2">
-        <v>0.08674741202270358</v>
+        <v>0.0633462619521882</v>
       </c>
       <c r="AC2">
-        <v>0.1673493841927033</v>
+        <v>0.2140345825835176</v>
       </c>
       <c r="AD2">
-        <v>56.3</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>63.57593748967324</v>
+        <v>68.61799159547031</v>
       </c>
       <c r="AF2">
-        <v>119.8759374896732</v>
+        <v>68.61799159547031</v>
       </c>
       <c r="AG2">
-        <v>-856.5240625103268</v>
+        <v>-1154.88200840453</v>
       </c>
       <c r="AH2">
-        <v>0.006396632502265623</v>
+        <v>0.002989614798102581</v>
       </c>
       <c r="AI2">
-        <v>0.02663450461756036</v>
+        <v>0.01326485200557116</v>
       </c>
       <c r="AJ2">
-        <v>-0.04821664045596093</v>
+        <v>-0.05315027439164482</v>
       </c>
       <c r="AK2">
-        <v>-0.2430285751866778</v>
+        <v>-0.2924182780506312</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
-        <v>-54.6</v>
+        <v>-43.3</v>
       </c>
       <c r="AN2">
-        <v>0.05567091861959853</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>-0.8469534880948548</v>
+        <v>-1.05391678080355</v>
       </c>
       <c r="AQ2">
-        <v>-16.33150183150183</v>
+        <v>-22.15935334872979</v>
       </c>
     </row>
     <row r="3">
@@ -725,121 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.0488</v>
+        <v>0.0674</v>
       </c>
       <c r="E3">
-        <v>0.197</v>
+        <v>0.138</v>
       </c>
       <c r="F3">
-        <v>0.06570000000000001</v>
+        <v>0.0673</v>
       </c>
       <c r="G3">
-        <v>0.4078162457490104</v>
+        <v>0.4367856961446639</v>
       </c>
       <c r="H3">
-        <v>0.2437698611807995</v>
+        <v>0.2671305937928582</v>
       </c>
       <c r="I3">
-        <v>0.2498145767135155</v>
+        <v>0.2446732365725875</v>
       </c>
       <c r="J3">
-        <v>0.2096490474748285</v>
+        <v>0.2446732365725875</v>
       </c>
       <c r="K3">
-        <v>781.8</v>
+        <v>1019.6</v>
       </c>
       <c r="L3">
-        <v>0.2179294196353905</v>
+        <v>0.2589526083202113</v>
       </c>
       <c r="M3">
-        <v>331.6</v>
+        <v>468.3</v>
       </c>
       <c r="N3">
-        <v>0.01780823389149652</v>
+        <v>0.02046452684248476</v>
       </c>
       <c r="O3">
-        <v>0.4241493988232284</v>
+        <v>0.4592977638289525</v>
       </c>
       <c r="P3">
-        <v>308.9</v>
+        <v>442.3</v>
       </c>
       <c r="Q3">
-        <v>0.01658915394777827</v>
+        <v>0.01932833701138375</v>
       </c>
       <c r="R3">
-        <v>0.3951138398567409</v>
+        <v>0.4337975676735975</v>
       </c>
       <c r="S3">
-        <v>22.69999999999999</v>
+        <v>26</v>
       </c>
       <c r="T3">
-        <v>0.06845597104945715</v>
+        <v>0.05551996583386718</v>
       </c>
       <c r="U3">
-        <v>976.4</v>
+        <v>1223.5</v>
       </c>
       <c r="V3">
-        <v>0.05243654876856815</v>
+        <v>0.0534664714750803</v>
       </c>
       <c r="W3">
-        <v>0.1977888531889594</v>
+        <v>0.2327375653404552</v>
       </c>
       <c r="X3">
-        <v>0.08715700764059524</v>
+        <v>0.0634871818159634</v>
       </c>
       <c r="Y3">
-        <v>0.1106318455483642</v>
+        <v>0.1692503835244918</v>
       </c>
       <c r="Z3">
-        <v>1.21201025845784</v>
+        <v>1.133678731770138</v>
       </c>
       <c r="AA3">
-        <v>0.2540967962154069</v>
+        <v>0.2773808445357058</v>
       </c>
       <c r="AB3">
-        <v>0.08674741202270358</v>
+        <v>0.0633462619521882</v>
       </c>
       <c r="AC3">
-        <v>0.1673493841927033</v>
+        <v>0.2140345825835176</v>
       </c>
       <c r="AD3">
-        <v>56.3</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>63.57593748967324</v>
+        <v>68.61799159547031</v>
       </c>
       <c r="AF3">
-        <v>119.8759374896732</v>
+        <v>68.61799159547031</v>
       </c>
       <c r="AG3">
-        <v>-856.5240625103268</v>
+        <v>-1154.88200840453</v>
       </c>
       <c r="AH3">
-        <v>0.006396632502265623</v>
+        <v>0.002989614798102581</v>
       </c>
       <c r="AI3">
-        <v>0.02663450461756036</v>
+        <v>0.01326485200557116</v>
       </c>
       <c r="AJ3">
-        <v>-0.04821664045596093</v>
+        <v>-0.05315027439164482</v>
       </c>
       <c r="AK3">
-        <v>-0.2430285751866778</v>
+        <v>-0.2924182780506312</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
-        <v>-54.6</v>
+        <v>-43.3</v>
       </c>
       <c r="AN3">
-        <v>0.05567091861959853</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>-0.8469534880948548</v>
+        <v>-1.05391678080355</v>
       </c>
       <c r="AQ3">
-        <v>-16.33150183150183</v>
+        <v>-22.15935334872979</v>
       </c>
     </row>
   </sheetData>
